--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_015.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_015.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295018AA1.08) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Plant operations</t>
-  </si>
-  <si>
-    <t>(295023AK2.02) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295005AA2.07) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295031EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Spray cooling</t>
-  </si>
-  <si>
-    <t>(295025EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Exceeding safety limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
-  </si>
-  <si>
-    <t>(295024EK2.11) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell spray (RHR) (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295021AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Establishing alternate heat removal flow paths</t>
-  </si>
-  <si>
-    <t>(295037EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cold shutdown boron weight</t>
-  </si>
-  <si>
-    <t>(295006AA1.01) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295038EK2.07) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Control room heating, ventilation and air conditioning</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
-  </si>
-  <si>
-    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
-  </si>
-  <si>
-    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295007AA2.04) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Bypass valve capacity</t>
-  </si>
-  <si>
-    <t>(500000EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.5 / 45.6) Operation of drywell nitrogen purge system</t>
-  </si>
-  <si>
-    <t>(295032EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295014AA1.05) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) Neutron monitoring system/OPRMs</t>
-  </si>
-  <si>
-    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(510000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Intake screen differential pressure/level</t>
-  </si>
-  <si>
-    <t>(215003A2.03) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
-  </si>
-  <si>
-    <t>(205000K4.08) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevent inadvertent vessel draining</t>
-  </si>
-  <si>
-    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
-  </si>
-  <si>
-    <t>(209002A4.07) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
-  </si>
-  <si>
-    <t>(217000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(203000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) ECCS room integrity</t>
-  </si>
-  <si>
-    <t>(215005A3.03) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Meters and recorders</t>
-  </si>
-  <si>
-    <t>(211000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) SLCS pressure/relief valve operation</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (291005K1.06) MOTORS AND GENERATORS (CFR: 41.7) Reason for limiting the number of motor starts in a given time period</t>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AA1.10) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Alternate fuel pool makeup systems</t>
+  </si>
+  <si>
+    <t>(295006AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor water level response</t>
+  </si>
+  <si>
+    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
+  </si>
+  <si>
+    <t>(295016AA1.09) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Isolation condensers (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA1.03) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295019AK2.17) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) High-pressure coolant injection</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Recirculation pump discharge/suction valve manipulation </t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295013AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Suppression pool cooling operation</t>
+  </si>
+  <si>
+    <t>(295020AK2.03) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell or containment ventilation</t>
+  </si>
+  <si>
+    <t>(295036EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Electrical ground/circuit malfunction</t>
+  </si>
+  <si>
+    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295022AA1.03) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) Recirculation system</t>
+  </si>
+  <si>
+    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
+  </si>
+  <si>
+    <t>(217000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(400000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW flow rate</t>
+  </si>
+  <si>
+    <t>(212000A4.13) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Individual control rod SCRAM testing</t>
+  </si>
+  <si>
+    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
+  </si>
+  <si>
+    <t>(215003K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Changing mode switch position</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(209002K4.09) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Manual system initiation</t>
+  </si>
+  <si>
+    <t>(263000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Battery charger and battery</t>
   </si>
   <si>
     <t>(264000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency core cooling systems</t>
   </si>
   <si>
-    <t>(209001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(212000A2.10) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system low hydraulic pressure</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
-  </si>
-  <si>
-    <t>(261000A4.07) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System flow</t>
-  </si>
-  <si>
-    <t>(262001K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
-  </si>
-  <si>
-    <t>(300000K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
-  </si>
-  <si>
-    <t>(239002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Acoustical monitoring</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Low-pressure core spray system</t>
-  </si>
-  <si>
-    <t>(510000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Strainer differential pressure</t>
-  </si>
-  <si>
-    <t>(215003A2.02) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) IRM inoperable condition</t>
-  </si>
-  <si>
-    <t>(290001A3.01) Ability to monitor automatic operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.7 / 45.7) Secondary containment isolation</t>
-  </si>
-  <si>
-    <t>(234000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) Spent fuel cask</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (291003K1.01) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and operation of flow controller in manual and automatic modes</t>
-  </si>
-  <si>
-    <t>(230000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Keep fill system</t>
-  </si>
-  <si>
-    <t>(223001A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(268000A2.01) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) System rupture </t>
-  </si>
-  <si>
-    <t>(245000K4.08) Knowledge of (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Moisture removal from turbine steam</t>
-  </si>
-  <si>
-    <t>(290003K2.02) (SF9 CRV) CONTROL ROOM VENTILATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Chiller units</t>
-  </si>
-  <si>
-    <t>(201005A4.01) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Operator control module (lights and push buttons)</t>
-  </si>
-  <si>
-    <t>(256000K3.16) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate demineralizer system</t>
-  </si>
-  <si>
-    <t>(290002K6.19) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) HIGH-PRESSURE CORE SPRAY SYSTEM (BWR 5, 6)</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+    <t>(261000A2.13) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High secondary containment ventilation exhaust radiation</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(223002K3.05) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell floor and equipment drain system</t>
+  </si>
+  <si>
+    <t>(215005A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) APRM (gain adjustment factor)</t>
+  </si>
+  <si>
+    <t>(262001A4.03) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Local operation of breakers</t>
+  </si>
+  <si>
+    <t>(510000A3.04) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Strainer operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(300000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Air compressors </t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291004K1.20) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Discuss relationship among head, flow, speed, and power</t>
+  </si>
+  <si>
+    <t>(211000K4.02) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Component and system testing</t>
+  </si>
+  <si>
+    <t>(209001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(205000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant pneumatic systems</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
+  </si>
+  <si>
+    <t>(217000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
+  </si>
+  <si>
+    <t>(400000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW temperature</t>
+  </si>
+  <si>
+    <t>(212000A4.14) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
+  </si>
+  <si>
+    <t>(241000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(215001A2.06) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(202001K2.06) (SF1, SF4 RS) RECIRCULATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) VFDs</t>
+  </si>
+  <si>
+    <t>(259001K3.12) Knowledge of the effect that a loss or malfunction of the (SF2 FWS) FEEDWATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(510001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Circulating water temperatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(202002A4.02) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Hydraulic power unit (BWR 5, 6) </t>
+  </si>
+  <si>
+    <t>(288000A3.02) Ability to monitor automatic operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.7 / 45.7) Differential pressure control</t>
+  </si>
+  <si>
+    <t>(234000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Refueling platform air</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(204000K4.04) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System isolation</t>
+  </si>
+  <si>
+    <t>(286000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Effect of halon on fires</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(293008K1.20) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define carryunder</t>
-  </si>
-  <si>
-    <t>(293009K1.01) CORE THERMAL LIMITS (CFR: 41.14) Explain radial peaking factor</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t>(292004K1.11) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of void coefficient from changes in the following: --Core void fraction</t>
+  </si>
+  <si>
+    <t>(293009K1.32) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) List the causes of pellet-clad interaction</t>
+  </si>
+  <si>
+    <t>(293006K1.14) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the results of putting centrifugal pumps in parallel or series combinations</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
   </si>
   <si>
     <t>(295011AA2.03) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment humidity</t>
   </si>
   <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
-  </si>
-  <si>
-    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(209002A2.07) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump seal failure</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(203000A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(239001A2.04) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line low pressure</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(203000A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate room cooling</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(223001A2.10) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High drywell temperature</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
@@ -385,157 +385,208 @@
     <t>T</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295023</t>
+    <t>295019</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295031</t>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295003</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295004</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295011</t>
   </si>
   <si>
     <t>295007</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>202001</t>
+    <t>295009</t>
   </si>
   <si>
     <t>230000</t>
@@ -544,58 +595,7 @@
     <t>223001</t>
   </si>
   <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>226001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1786,7 +1786,7 @@
         <v>3.2</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2364,7 +2364,7 @@
         <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>2.7</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2449,7 +2449,7 @@
         <v>4.3</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
